--- a/data/relief_data/2024.xlsx
+++ b/data/relief_data/2024.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>date</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1790,7 +1790,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.612676056338028</v>
+        <v>3.866197183098592</v>
       </c>
       <c r="D37" t="n">
         <v>1.71830985915493</v>
@@ -1811,7 +1811,7 @@
         <v>4.774647887323944</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.7183098591549296</v>
+        <v>-0.6619718309859155</v>
       </c>
       <c r="K37" t="n">
         <v>-1.070422535211268</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4.381578947368421</v>
+        <v>4.144736842105263</v>
       </c>
       <c r="D79" t="n">
         <v>1.394736842105263</v>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>bukauskas_j</t>
+          <t>bukauskas_j. b.</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>chargois_j</t>
+          <t>chargois_j. t.</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>feyereisen_j</t>
+          <t>feyereisen_j. p.</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -7710,7 +7710,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2.21830985915493</v>
+        <v>3.105633802816901</v>
       </c>
       <c r="D197" t="n">
         <v>1.436619718309859</v>
@@ -7731,7 +7731,7 @@
         <v>4.690140845070423</v>
       </c>
       <c r="J197" t="n">
-        <v>1.633802816901408</v>
+        <v>1.647887323943662</v>
       </c>
       <c r="K197" t="n">
         <v>1.352112676056338</v>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>france_j</t>
+          <t>france_j. p.</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -8376,7 +8376,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>4.329113924050633</v>
+        <v>4.556962025316456</v>
       </c>
       <c r="D215" t="n">
         <v>1.20253164556962</v>
@@ -8397,7 +8397,7 @@
         <v>4.620253164556962</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1392405063291139</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="K215" t="n">
         <v>-0.2025316455696203</v>
@@ -11616,7 +11616,7 @@
         <v>4.780821917808219</v>
       </c>
       <c r="J302" t="n">
-        <v>1.452054794520548</v>
+        <v>1.47945205479452</v>
       </c>
       <c r="K302" t="n">
         <v>1.150684931506849</v>
@@ -12113,7 +12113,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2.309210526315789</v>
+        <v>2.427631578947369</v>
       </c>
       <c r="D316" t="n">
         <v>0.9342105263157895</v>
@@ -13665,7 +13665,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>3.402439024390244</v>
+        <v>3.51219512195122</v>
       </c>
       <c r="D358" t="n">
         <v>1.475609756097561</v>
@@ -15881,7 +15881,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>mcfarland_t</t>
+          <t>mcfarland_t. j.</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -16769,7 +16769,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>minter_a</t>
+          <t>minter_a. j.</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -18068,7 +18068,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>3.5</v>
+        <v>3.4453125</v>
       </c>
       <c r="D477" t="n">
         <v>1.25</v>
@@ -19137,7 +19137,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>puk_a</t>
+          <t>puk_a. j.</t>
         </is>
       </c>
       <c r="C506" t="n">

--- a/data/relief_data/2024.xlsx
+++ b/data/relief_data/2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J715"/>
+  <dimension ref="A1:K715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -477,6 +477,11 @@
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>d2S/G</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
         </is>
       </c>
     </row>
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>0.3214285714285715</v>
       </c>
+      <c r="K2" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>-0.4470588235294117</v>
       </c>
+      <c r="K3" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>-0.3294117647058824</v>
       </c>
+      <c r="K4" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>-0.359375</v>
       </c>
+      <c r="K5" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>-2</v>
       </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>-0.6363636363636365</v>
       </c>
+      <c r="K7" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -717,6 +740,9 @@
       <c r="J8" t="n">
         <v>-0.3150684931506849</v>
       </c>
+      <c r="K8" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -751,6 +777,9 @@
       <c r="J9" t="n">
         <v>-0.4603174603174603</v>
       </c>
+      <c r="K9" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -785,6 +814,9 @@
       <c r="J10" t="n">
         <v>-0.4166666666666666</v>
       </c>
+      <c r="K10" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -819,6 +851,9 @@
       <c r="J11" t="n">
         <v>-0.4230769230769231</v>
       </c>
+      <c r="K11" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -853,6 +888,9 @@
       <c r="J12" t="n">
         <v>-0.2</v>
       </c>
+      <c r="K12" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,6 +925,9 @@
       <c r="J13" t="n">
         <v>1.08</v>
       </c>
+      <c r="K13" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -921,6 +962,9 @@
       <c r="J14" t="n">
         <v>-0.08333333333333326</v>
       </c>
+      <c r="K14" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -955,6 +999,9 @@
       <c r="J15" t="n">
         <v>-0.8181818181818181</v>
       </c>
+      <c r="K15" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -989,6 +1036,9 @@
       <c r="J16" t="n">
         <v>-0.3466666666666666</v>
       </c>
+      <c r="K16" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1023,6 +1073,9 @@
       <c r="J17" t="n">
         <v>0</v>
       </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1057,6 +1110,9 @@
       <c r="J18" t="n">
         <v>-0.52</v>
       </c>
+      <c r="K18" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1091,6 +1147,9 @@
       <c r="J19" t="n">
         <v>-0.7878787878787876</v>
       </c>
+      <c r="K19" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1125,6 +1184,9 @@
       <c r="J20" t="n">
         <v>-0.7666666666666667</v>
       </c>
+      <c r="K20" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1159,6 +1221,9 @@
       <c r="J21" t="n">
         <v>-0.375</v>
       </c>
+      <c r="K21" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1193,6 +1258,9 @@
       <c r="J22" t="n">
         <v>-0.4090909090909091</v>
       </c>
+      <c r="K22" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1227,6 +1295,9 @@
       <c r="J23" t="n">
         <v>-1.666666666666667</v>
       </c>
+      <c r="K23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1261,6 +1332,9 @@
       <c r="J24" t="n">
         <v>-0.02777777777777779</v>
       </c>
+      <c r="K24" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1295,6 +1369,9 @@
       <c r="J25" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="K25" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1329,6 +1406,9 @@
       <c r="J26" t="n">
         <v>-0.3846153846153846</v>
       </c>
+      <c r="K26" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1363,6 +1443,9 @@
       <c r="J27" t="n">
         <v>-0.453125</v>
       </c>
+      <c r="K27" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1397,6 +1480,9 @@
       <c r="J28" t="n">
         <v>-1.166666666666667</v>
       </c>
+      <c r="K28" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1431,6 +1517,9 @@
       <c r="J29" t="n">
         <v>0.3157894736842105</v>
       </c>
+      <c r="K29" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1465,6 +1554,9 @@
       <c r="J30" t="n">
         <v>0.3823529411764706</v>
       </c>
+      <c r="K30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1499,6 +1591,9 @@
       <c r="J31" t="n">
         <v>-0.8666666666666667</v>
       </c>
+      <c r="K31" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1533,6 +1628,9 @@
       <c r="J32" t="n">
         <v>-0.5245901639344261</v>
       </c>
+      <c r="K32" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1567,6 +1665,9 @@
       <c r="J33" t="n">
         <v>-0.4230769230769231</v>
       </c>
+      <c r="K33" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1601,6 +1702,9 @@
       <c r="J34" t="n">
         <v>-0.373134328358209</v>
       </c>
+      <c r="K34" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1635,6 +1739,9 @@
       <c r="J35" t="n">
         <v>-0.342857142857143</v>
       </c>
+      <c r="K35" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1669,6 +1776,9 @@
       <c r="J36" t="n">
         <v>-0.3380281690140845</v>
       </c>
+      <c r="K36" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1703,6 +1813,9 @@
       <c r="J37" t="n">
         <v>-0.408450704225352</v>
       </c>
+      <c r="K37" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1737,6 +1850,9 @@
       <c r="J38" t="n">
         <v>-0.631578947368421</v>
       </c>
+      <c r="K38" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1771,6 +1887,9 @@
       <c r="J39" t="n">
         <v>-2</v>
       </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1805,6 +1924,9 @@
       <c r="J40" t="n">
         <v>-0.4054054054054054</v>
       </c>
+      <c r="K40" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1839,6 +1961,9 @@
       <c r="J41" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1873,6 +1998,9 @@
       <c r="J42" t="n">
         <v>-0.564516129032258</v>
       </c>
+      <c r="K42" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1907,6 +2035,9 @@
       <c r="J43" t="n">
         <v>0.3571428571428572</v>
       </c>
+      <c r="K43" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1941,6 +2072,9 @@
       <c r="J44" t="n">
         <v>-0.3043478260869564</v>
       </c>
+      <c r="K44" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1975,6 +2109,9 @@
       <c r="J45" t="n">
         <v>-0.2857142857142856</v>
       </c>
+      <c r="K45" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2009,6 +2146,9 @@
       <c r="J46" t="n">
         <v>-0.375</v>
       </c>
+      <c r="K46" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2043,6 +2183,9 @@
       <c r="J47" t="n">
         <v>-0.5555555555555556</v>
       </c>
+      <c r="K47" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2077,6 +2220,9 @@
       <c r="J48" t="n">
         <v>-0.4691358024691358</v>
       </c>
+      <c r="K48" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2111,6 +2257,9 @@
       <c r="J49" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2145,6 +2294,9 @@
       <c r="J50" t="n">
         <v>0.4</v>
       </c>
+      <c r="K50" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2179,6 +2331,9 @@
       <c r="J51" t="n">
         <v>-0.3880597014925373</v>
       </c>
+      <c r="K51" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2213,6 +2368,9 @@
       <c r="J52" t="n">
         <v>-0.109375</v>
       </c>
+      <c r="K52" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2405,9 @@
       <c r="J53" t="n">
         <v>-0.3181818181818181</v>
       </c>
+      <c r="K53" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2281,6 +2442,9 @@
       <c r="J54" t="n">
         <v>0.8055555555555556</v>
       </c>
+      <c r="K54" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2315,6 +2479,9 @@
       <c r="J55" t="n">
         <v>0.5</v>
       </c>
+      <c r="K55" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2349,6 +2516,9 @@
       <c r="J56" t="n">
         <v>-0.4615384615384612</v>
       </c>
+      <c r="K56" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2383,6 +2553,9 @@
       <c r="J57" t="n">
         <v>0.5789473684210527</v>
       </c>
+      <c r="K57" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2417,6 +2590,9 @@
       <c r="J58" t="n">
         <v>4.5</v>
       </c>
+      <c r="K58" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2451,6 +2627,9 @@
       <c r="J59" t="n">
         <v>-0.9999999999999998</v>
       </c>
+      <c r="K59" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2485,6 +2664,9 @@
       <c r="J60" t="n">
         <v>-0.4318181818181819</v>
       </c>
+      <c r="K60" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2519,6 +2701,9 @@
       <c r="J61" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K61" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2553,6 +2738,9 @@
       <c r="J62" t="n">
         <v>-1.444444444444445</v>
       </c>
+      <c r="K62" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2587,6 +2775,9 @@
       <c r="J63" t="n">
         <v>0.7222222222222222</v>
       </c>
+      <c r="K63" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2621,6 +2812,9 @@
       <c r="J64" t="n">
         <v>1.194444444444444</v>
       </c>
+      <c r="K64" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2655,6 +2849,9 @@
       <c r="J65" t="n">
         <v>-0.3888888888888888</v>
       </c>
+      <c r="K65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2689,6 +2886,9 @@
       <c r="J66" t="n">
         <v>-1</v>
       </c>
+      <c r="K66" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2723,6 +2923,9 @@
       <c r="J67" t="n">
         <v>-0.4</v>
       </c>
+      <c r="K67" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2757,6 +2960,9 @@
       <c r="J68" t="n">
         <v>-0.2380952380952381</v>
       </c>
+      <c r="K68" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2791,6 +2997,9 @@
       <c r="J69" t="n">
         <v>0</v>
       </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2825,6 +3034,9 @@
       <c r="J70" t="n">
         <v>-0.3999999999999999</v>
       </c>
+      <c r="K70" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2859,6 +3071,9 @@
       <c r="J71" t="n">
         <v>-1.666666666666667</v>
       </c>
+      <c r="K71" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2893,6 +3108,9 @@
       <c r="J72" t="n">
         <v>-0.625</v>
       </c>
+      <c r="K72" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2927,6 +3145,9 @@
       <c r="J73" t="n">
         <v>-0.3636363636363636</v>
       </c>
+      <c r="K73" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2961,6 +3182,9 @@
       <c r="J74" t="n">
         <v>-1.263157894736842</v>
       </c>
+      <c r="K74" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2995,6 +3219,9 @@
       <c r="J75" t="n">
         <v>-0.1</v>
       </c>
+      <c r="K75" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3029,6 +3256,9 @@
       <c r="J76" t="n">
         <v>0.375</v>
       </c>
+      <c r="K76" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3063,6 +3293,9 @@
       <c r="J77" t="n">
         <v>-0.6538461538461539</v>
       </c>
+      <c r="K77" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3097,6 +3330,9 @@
       <c r="J78" t="n">
         <v>-0.5681818181818181</v>
       </c>
+      <c r="K78" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3131,6 +3367,9 @@
       <c r="J79" t="n">
         <v>-0.5263157894736843</v>
       </c>
+      <c r="K79" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3165,6 +3404,9 @@
       <c r="J80" t="n">
         <v>-0.5901639344262295</v>
       </c>
+      <c r="K80" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3199,6 +3441,9 @@
       <c r="J81" t="n">
         <v>-0.8260869565217391</v>
       </c>
+      <c r="K81" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3233,6 +3478,9 @@
       <c r="J82" t="n">
         <v>-0.2203389830508475</v>
       </c>
+      <c r="K82" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3267,6 +3515,9 @@
       <c r="J83" t="n">
         <v>-0.3225806451612905</v>
       </c>
+      <c r="K83" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3301,6 +3552,9 @@
       <c r="J84" t="n">
         <v>-1.363636363636364</v>
       </c>
+      <c r="K84" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3335,6 +3589,9 @@
       <c r="J85" t="n">
         <v>-1.166666666666667</v>
       </c>
+      <c r="K85" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3369,6 +3626,9 @@
       <c r="J86" t="n">
         <v>0.4</v>
       </c>
+      <c r="K86" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3403,6 +3663,9 @@
       <c r="J87" t="n">
         <v>0.8108108108108109</v>
       </c>
+      <c r="K87" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3437,6 +3700,9 @@
       <c r="J88" t="n">
         <v>-0.3333333333333333</v>
       </c>
+      <c r="K88" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3471,6 +3737,9 @@
       <c r="J89" t="n">
         <v>-4</v>
       </c>
+      <c r="K89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3505,6 +3774,9 @@
       <c r="J90" t="n">
         <v>-0.4193548387096774</v>
       </c>
+      <c r="K90" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3539,6 +3811,9 @@
       <c r="J91" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K91" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3573,6 +3848,9 @@
       <c r="J92" t="n">
         <v>-1.05</v>
       </c>
+      <c r="K92" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3607,6 +3885,9 @@
       <c r="J93" t="n">
         <v>-0.06666666666666665</v>
       </c>
+      <c r="K93" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3641,6 +3922,9 @@
       <c r="J94" t="n">
         <v>-0.4461538461538461</v>
       </c>
+      <c r="K94" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3675,6 +3959,9 @@
       <c r="J95" t="n">
         <v>-0.2631578947368421</v>
       </c>
+      <c r="K95" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3709,6 +3996,9 @@
       <c r="J96" t="n">
         <v>-0.4523809523809523</v>
       </c>
+      <c r="K96" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3743,6 +4033,9 @@
       <c r="J97" t="n">
         <v>0.9736842105263159</v>
       </c>
+      <c r="K97" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3777,6 +4070,9 @@
       <c r="J98" t="n">
         <v>-0.3684210526315789</v>
       </c>
+      <c r="K98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3811,6 +4107,9 @@
       <c r="J99" t="n">
         <v>-1.125</v>
       </c>
+      <c r="K99" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3845,6 +4144,9 @@
       <c r="J100" t="n">
         <v>-0.225</v>
       </c>
+      <c r="K100" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3879,6 +4181,9 @@
       <c r="J101" t="n">
         <v>0.5909090909090908</v>
       </c>
+      <c r="K101" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3913,6 +4218,9 @@
       <c r="J102" t="n">
         <v>-0.4210526315789474</v>
       </c>
+      <c r="K102" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3947,6 +4255,9 @@
       <c r="J103" t="n">
         <v>-0.8235294117647058</v>
       </c>
+      <c r="K103" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3981,6 +4292,9 @@
       <c r="J104" t="n">
         <v>-0.5135135135135136</v>
       </c>
+      <c r="K104" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4015,6 +4329,9 @@
       <c r="J105" t="n">
         <v>-0.3421052631578947</v>
       </c>
+      <c r="K105" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4049,6 +4366,9 @@
       <c r="J106" t="n">
         <v>-0.7999999999999999</v>
       </c>
+      <c r="K106" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4083,6 +4403,9 @@
       <c r="J107" t="n">
         <v>-1.230769230769231</v>
       </c>
+      <c r="K107" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4117,6 +4440,9 @@
       <c r="J108" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K108" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4151,6 +4477,9 @@
       <c r="J109" t="n">
         <v>-0.7333333333333334</v>
       </c>
+      <c r="K109" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4185,6 +4514,9 @@
       <c r="J110" t="n">
         <v>0.3428571428571429</v>
       </c>
+      <c r="K110" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4219,6 +4551,9 @@
       <c r="J111" t="n">
         <v>-0.6499999999999999</v>
       </c>
+      <c r="K111" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4253,6 +4588,9 @@
       <c r="J112" t="n">
         <v>0</v>
       </c>
+      <c r="K112" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4287,6 +4625,9 @@
       <c r="J113" t="n">
         <v>0</v>
       </c>
+      <c r="K113" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4321,6 +4662,9 @@
       <c r="J114" t="n">
         <v>-1.166666666666667</v>
       </c>
+      <c r="K114" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4355,6 +4699,9 @@
       <c r="J115" t="n">
         <v>-0.2352941176470588</v>
       </c>
+      <c r="K115" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4389,6 +4736,9 @@
       <c r="J116" t="n">
         <v>-0.3513513513513515</v>
       </c>
+      <c r="K116" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4423,6 +4773,9 @@
       <c r="J117" t="n">
         <v>-0.3243243243243243</v>
       </c>
+      <c r="K117" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4457,6 +4810,9 @@
       <c r="J118" t="n">
         <v>-0.3518518518518519</v>
       </c>
+      <c r="K118" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4491,6 +4847,9 @@
       <c r="J119" t="n">
         <v>-1.1</v>
       </c>
+      <c r="K119" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4525,6 +4884,9 @@
       <c r="J120" t="n">
         <v>-0.1081081081081081</v>
       </c>
+      <c r="K120" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4559,6 +4921,9 @@
       <c r="J121" t="n">
         <v>-0.3043478260869565</v>
       </c>
+      <c r="K121" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4593,6 +4958,9 @@
       <c r="J122" t="n">
         <v>0.3714285714285714</v>
       </c>
+      <c r="K122" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4627,6 +4995,9 @@
       <c r="J123" t="n">
         <v>-0.2359550561797752</v>
       </c>
+      <c r="K123" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4661,6 +5032,9 @@
       <c r="J124" t="n">
         <v>-0.4520547945205479</v>
       </c>
+      <c r="K124" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4695,6 +5069,9 @@
       <c r="J125" t="n">
         <v>-1</v>
       </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4729,6 +5106,9 @@
       <c r="J126" t="n">
         <v>-1</v>
       </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4763,6 +5143,9 @@
       <c r="J127" t="n">
         <v>-1.5</v>
       </c>
+      <c r="K127" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4797,6 +5180,9 @@
       <c r="J128" t="n">
         <v>1</v>
       </c>
+      <c r="K128" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4831,6 +5217,9 @@
       <c r="J129" t="n">
         <v>0.8695652173913043</v>
       </c>
+      <c r="K129" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4865,6 +5254,9 @@
       <c r="J130" t="n">
         <v>-0.6666666666666667</v>
       </c>
+      <c r="K130" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4899,6 +5291,9 @@
       <c r="J131" t="n">
         <v>-0.4642857142857142</v>
       </c>
+      <c r="K131" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4933,6 +5328,9 @@
       <c r="J132" t="n">
         <v>-1.324324324324324</v>
       </c>
+      <c r="K132" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4967,6 +5365,9 @@
       <c r="J133" t="n">
         <v>0.1081081081081081</v>
       </c>
+      <c r="K133" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5001,6 +5402,9 @@
       <c r="J134" t="n">
         <v>-0.3750000000000001</v>
       </c>
+      <c r="K134" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5035,6 +5439,9 @@
       <c r="J135" t="n">
         <v>0.02564102564102577</v>
       </c>
+      <c r="K135" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5069,6 +5476,9 @@
       <c r="J136" t="n">
         <v>-0.3</v>
       </c>
+      <c r="K136" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5103,6 +5513,9 @@
       <c r="J137" t="n">
         <v>-3</v>
       </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5137,6 +5550,9 @@
       <c r="J138" t="n">
         <v>-0.02631578947368421</v>
       </c>
+      <c r="K138" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5171,6 +5587,9 @@
       <c r="J139" t="n">
         <v>-0.3636363636363636</v>
       </c>
+      <c r="K139" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5205,6 +5624,9 @@
       <c r="J140" t="n">
         <v>0.25</v>
       </c>
+      <c r="K140" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5239,6 +5661,9 @@
       <c r="J141" t="n">
         <v>-0.6216216216216217</v>
       </c>
+      <c r="K141" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5273,6 +5698,9 @@
       <c r="J142" t="n">
         <v>-0.4153846153846152</v>
       </c>
+      <c r="K142" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5307,6 +5735,9 @@
       <c r="J143" t="n">
         <v>-0.2592592592592591</v>
       </c>
+      <c r="K143" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5341,6 +5772,9 @@
       <c r="J144" t="n">
         <v>-0.5512820512820512</v>
       </c>
+      <c r="K144" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5375,6 +5809,9 @@
       <c r="J145" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K145" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5409,6 +5846,9 @@
       <c r="J146" t="n">
         <v>-0.9090909090909092</v>
       </c>
+      <c r="K146" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5443,6 +5883,9 @@
       <c r="J147" t="n">
         <v>-3</v>
       </c>
+      <c r="K147" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5477,6 +5920,9 @@
       <c r="J148" t="n">
         <v>-0.631578947368421</v>
       </c>
+      <c r="K148" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5511,6 +5957,9 @@
       <c r="J149" t="n">
         <v>-0.9166666666666666</v>
       </c>
+      <c r="K149" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5545,6 +5994,9 @@
       <c r="J150" t="n">
         <v>-1.125</v>
       </c>
+      <c r="K150" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5579,6 +6031,9 @@
       <c r="J151" t="n">
         <v>0</v>
       </c>
+      <c r="K151" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5613,6 +6068,9 @@
       <c r="J152" t="n">
         <v>0.25</v>
       </c>
+      <c r="K152" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5647,6 +6105,9 @@
       <c r="J153" t="n">
         <v>-0.5555555555555556</v>
       </c>
+      <c r="K153" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5681,6 +6142,9 @@
       <c r="J154" t="n">
         <v>-0.8333333333333335</v>
       </c>
+      <c r="K154" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5715,6 +6179,9 @@
       <c r="J155" t="n">
         <v>-0.8636363636363635</v>
       </c>
+      <c r="K155" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5749,6 +6216,9 @@
       <c r="J156" t="n">
         <v>-0.647887323943662</v>
       </c>
+      <c r="K156" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5783,6 +6253,9 @@
       <c r="J157" t="n">
         <v>-0.3333333333333335</v>
       </c>
+      <c r="K157" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5817,6 +6290,9 @@
       <c r="J158" t="n">
         <v>-1</v>
       </c>
+      <c r="K158" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5851,6 +6327,9 @@
       <c r="J159" t="n">
         <v>-0.7826086956521741</v>
       </c>
+      <c r="K159" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5885,6 +6364,9 @@
       <c r="J160" t="n">
         <v>-0.4399999999999999</v>
       </c>
+      <c r="K160" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5919,6 +6401,9 @@
       <c r="J161" t="n">
         <v>-0.6000000000000001</v>
       </c>
+      <c r="K161" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5953,6 +6438,9 @@
       <c r="J162" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="K162" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5987,6 +6475,9 @@
       <c r="J163" t="n">
         <v>-0.410958904109589</v>
       </c>
+      <c r="K163" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6021,6 +6512,9 @@
       <c r="J164" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K164" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6055,6 +6549,9 @@
       <c r="J165" t="n">
         <v>-0.3636363636363636</v>
       </c>
+      <c r="K165" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6089,6 +6586,9 @@
       <c r="J166" t="n">
         <v>-0.4193548387096774</v>
       </c>
+      <c r="K166" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6123,6 +6623,9 @@
       <c r="J167" t="n">
         <v>-0.1818181818181818</v>
       </c>
+      <c r="K167" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6157,6 +6660,9 @@
       <c r="J168" t="n">
         <v>-0.1612903225806451</v>
       </c>
+      <c r="K168" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6191,6 +6697,9 @@
       <c r="J169" t="n">
         <v>-0.3333333333333333</v>
       </c>
+      <c r="K169" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6225,6 +6734,9 @@
       <c r="J170" t="n">
         <v>-0.4477611940298507</v>
       </c>
+      <c r="K170" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6259,6 +6771,9 @@
       <c r="J171" t="n">
         <v>-0.265625</v>
       </c>
+      <c r="K171" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6293,6 +6808,9 @@
       <c r="J172" t="n">
         <v>-0.8999999999999999</v>
       </c>
+      <c r="K172" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6327,6 +6845,9 @@
       <c r="J173" t="n">
         <v>0</v>
       </c>
+      <c r="K173" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6361,6 +6882,9 @@
       <c r="J174" t="n">
         <v>0.666666666666667</v>
       </c>
+      <c r="K174" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6395,6 +6919,9 @@
       <c r="J175" t="n">
         <v>-0.21875</v>
       </c>
+      <c r="K175" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6429,6 +6956,9 @@
       <c r="J176" t="n">
         <v>-1.214285714285714</v>
       </c>
+      <c r="K176" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6463,6 +6993,9 @@
       <c r="J177" t="n">
         <v>-0.875</v>
       </c>
+      <c r="K177" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6497,6 +7030,9 @@
       <c r="J178" t="n">
         <v>-1.117647058823529</v>
       </c>
+      <c r="K178" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6531,6 +7067,9 @@
       <c r="J179" t="n">
         <v>0.696969696969697</v>
       </c>
+      <c r="K179" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6565,6 +7104,9 @@
       <c r="J180" t="n">
         <v>-0.2162162162162162</v>
       </c>
+      <c r="K180" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6599,6 +7141,9 @@
       <c r="J181" t="n">
         <v>-0.6666666666666667</v>
       </c>
+      <c r="K181" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6633,6 +7178,9 @@
       <c r="J182" t="n">
         <v>-0.1428571428571428</v>
       </c>
+      <c r="K182" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6667,6 +7215,9 @@
       <c r="J183" t="n">
         <v>-0.2876712328767124</v>
       </c>
+      <c r="K183" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6701,6 +7252,9 @@
       <c r="J184" t="n">
         <v>-0.3384615384615384</v>
       </c>
+      <c r="K184" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6735,6 +7289,9 @@
       <c r="J185" t="n">
         <v>-0.1363636363636364</v>
       </c>
+      <c r="K185" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6769,6 +7326,9 @@
       <c r="J186" t="n">
         <v>-0.3269230769230769</v>
       </c>
+      <c r="K186" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6803,6 +7363,9 @@
       <c r="J187" t="n">
         <v>-0.4411764705882353</v>
       </c>
+      <c r="K187" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6837,6 +7400,9 @@
       <c r="J188" t="n">
         <v>-0.4142857142857143</v>
       </c>
+      <c r="K188" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6871,6 +7437,9 @@
       <c r="J189" t="n">
         <v>-1</v>
       </c>
+      <c r="K189" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6905,6 +7474,9 @@
       <c r="J190" t="n">
         <v>-0.4210526315789474</v>
       </c>
+      <c r="K190" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6939,6 +7511,9 @@
       <c r="J191" t="n">
         <v>0.2285714285714285</v>
       </c>
+      <c r="K191" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6973,6 +7548,9 @@
       <c r="J192" t="n">
         <v>-0.4857142857142857</v>
       </c>
+      <c r="K192" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7007,6 +7585,9 @@
       <c r="J193" t="n">
         <v>-0.2753623188405797</v>
       </c>
+      <c r="K193" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7041,6 +7622,9 @@
       <c r="J194" t="n">
         <v>-0.1176470588235294</v>
       </c>
+      <c r="K194" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7075,6 +7659,9 @@
       <c r="J195" t="n">
         <v>-0.2727272727272728</v>
       </c>
+      <c r="K195" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7109,6 +7696,9 @@
       <c r="J196" t="n">
         <v>-0.2857142857142858</v>
       </c>
+      <c r="K196" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7143,6 +7733,9 @@
       <c r="J197" t="n">
         <v>-0.295774647887324</v>
       </c>
+      <c r="K197" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7177,6 +7770,9 @@
       <c r="J198" t="n">
         <v>-1</v>
       </c>
+      <c r="K198" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7211,6 +7807,9 @@
       <c r="J199" t="n">
         <v>0.3076923076923077</v>
       </c>
+      <c r="K199" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7245,6 +7844,9 @@
       <c r="J200" t="n">
         <v>-0.2424242424242424</v>
       </c>
+      <c r="K200" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7279,6 +7881,9 @@
       <c r="J201" t="n">
         <v>-0.6111111111111112</v>
       </c>
+      <c r="K201" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7313,6 +7918,9 @@
       <c r="J202" t="n">
         <v>-0.3285714285714286</v>
       </c>
+      <c r="K202" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7347,6 +7955,9 @@
       <c r="J203" t="n">
         <v>-0.3289473684210527</v>
       </c>
+      <c r="K203" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7381,6 +7992,9 @@
       <c r="J204" t="n">
         <v>0.3333333333333335</v>
       </c>
+      <c r="K204" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7415,6 +8029,9 @@
       <c r="J205" t="n">
         <v>-1.857142857142857</v>
       </c>
+      <c r="K205" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7449,6 +8066,9 @@
       <c r="J206" t="n">
         <v>-0.4375</v>
       </c>
+      <c r="K206" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7483,6 +8103,9 @@
       <c r="J207" t="n">
         <v>-0.5769230769230769</v>
       </c>
+      <c r="K207" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7517,6 +8140,9 @@
       <c r="J208" t="n">
         <v>-0.02941176470588236</v>
       </c>
+      <c r="K208" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7551,6 +8177,9 @@
       <c r="J209" t="n">
         <v>-0.55</v>
       </c>
+      <c r="K209" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7585,6 +8214,9 @@
       <c r="J210" t="n">
         <v>-0.4871794871794872</v>
       </c>
+      <c r="K210" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7619,6 +8251,9 @@
       <c r="J211" t="n">
         <v>-0.6176470588235293</v>
       </c>
+      <c r="K211" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7653,6 +8288,9 @@
       <c r="J212" t="n">
         <v>-0.2315789473684209</v>
       </c>
+      <c r="K212" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7687,6 +8325,9 @@
       <c r="J213" t="n">
         <v>-0.5161290322580645</v>
       </c>
+      <c r="K213" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7721,6 +8362,9 @@
       <c r="J214" t="n">
         <v>0.78125</v>
       </c>
+      <c r="K214" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7755,6 +8399,9 @@
       <c r="J215" t="n">
         <v>-0.2784810126582278</v>
       </c>
+      <c r="K215" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7789,6 +8436,9 @@
       <c r="J216" t="n">
         <v>-0.4782608695652173</v>
       </c>
+      <c r="K216" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7823,6 +8473,9 @@
       <c r="J217" t="n">
         <v>-0.6865671641791045</v>
       </c>
+      <c r="K217" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7857,6 +8510,9 @@
       <c r="J218" t="n">
         <v>-0.3191489361702128</v>
       </c>
+      <c r="K218" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7891,6 +8547,9 @@
       <c r="J219" t="n">
         <v>-0.75</v>
       </c>
+      <c r="K219" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7925,6 +8584,9 @@
       <c r="J220" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="K220" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7959,6 +8621,9 @@
       <c r="J221" t="n">
         <v>-0.390625</v>
       </c>
+      <c r="K221" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7993,6 +8658,9 @@
       <c r="J222" t="n">
         <v>0.4375</v>
       </c>
+      <c r="K222" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8027,6 +8695,9 @@
       <c r="J223" t="n">
         <v>-2.714285714285714</v>
       </c>
+      <c r="K223" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8061,6 +8732,9 @@
       <c r="J224" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K224" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8095,6 +8769,9 @@
       <c r="J225" t="n">
         <v>-0.7352941176470589</v>
       </c>
+      <c r="K225" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8129,6 +8806,9 @@
       <c r="J226" t="n">
         <v>1.138888888888889</v>
       </c>
+      <c r="K226" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8163,6 +8843,9 @@
       <c r="J227" t="n">
         <v>-0.2894736842105263</v>
       </c>
+      <c r="K227" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8197,6 +8880,9 @@
       <c r="J228" t="n">
         <v>-0.4545454545454548</v>
       </c>
+      <c r="K228" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8231,6 +8917,9 @@
       <c r="J229" t="n">
         <v>-0.6666666666666667</v>
       </c>
+      <c r="K229" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8265,6 +8954,9 @@
       <c r="J230" t="n">
         <v>-0.8571428571428572</v>
       </c>
+      <c r="K230" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8299,6 +8991,9 @@
       <c r="J231" t="n">
         <v>-0.2207792207792207</v>
       </c>
+      <c r="K231" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8333,6 +9028,9 @@
       <c r="J232" t="n">
         <v>0.68</v>
       </c>
+      <c r="K232" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8367,6 +9065,9 @@
       <c r="J233" t="n">
         <v>-0.6</v>
       </c>
+      <c r="K233" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8401,6 +9102,9 @@
       <c r="J234" t="n">
         <v>-1</v>
       </c>
+      <c r="K234" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8435,6 +9139,9 @@
       <c r="J235" t="n">
         <v>-0.2727272727272728</v>
       </c>
+      <c r="K235" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8469,6 +9176,9 @@
       <c r="J236" t="n">
         <v>0.2777777777777778</v>
       </c>
+      <c r="K236" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8503,6 +9213,9 @@
       <c r="J237" t="n">
         <v>-0.7777777777777777</v>
       </c>
+      <c r="K237" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8537,6 +9250,9 @@
       <c r="J238" t="n">
         <v>-0.09090909090909091</v>
       </c>
+      <c r="K238" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8571,6 +9287,9 @@
       <c r="J239" t="n">
         <v>-0.32</v>
       </c>
+      <c r="K239" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8605,6 +9324,9 @@
       <c r="J240" t="n">
         <v>-1.285714285714286</v>
       </c>
+      <c r="K240" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8639,6 +9361,9 @@
       <c r="J241" t="n">
         <v>-0.2</v>
       </c>
+      <c r="K241" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8673,6 +9398,9 @@
       <c r="J242" t="n">
         <v>-0.3442622950819672</v>
       </c>
+      <c r="K242" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8707,6 +9435,9 @@
       <c r="J243" t="n">
         <v>0.2258064516129032</v>
       </c>
+      <c r="K243" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8741,6 +9472,9 @@
       <c r="J244" t="n">
         <v>-0.3111111111111111</v>
       </c>
+      <c r="K244" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8775,6 +9509,9 @@
       <c r="J245" t="n">
         <v>0.2222222222222223</v>
       </c>
+      <c r="K245" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8809,6 +9546,9 @@
       <c r="J246" t="n">
         <v>-1.666666666666666</v>
       </c>
+      <c r="K246" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8843,6 +9583,9 @@
       <c r="J247" t="n">
         <v>-1.142857142857143</v>
       </c>
+      <c r="K247" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8877,6 +9620,9 @@
       <c r="J248" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="K248" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8911,6 +9657,9 @@
       <c r="J249" t="n">
         <v>-0.4430379746835444</v>
       </c>
+      <c r="K249" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8945,6 +9694,9 @@
       <c r="J250" t="n">
         <v>0.2352941176470588</v>
       </c>
+      <c r="K250" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8979,6 +9731,9 @@
       <c r="J251" t="n">
         <v>-0.3023255813953489</v>
       </c>
+      <c r="K251" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9013,6 +9768,9 @@
       <c r="J252" t="n">
         <v>0</v>
       </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9047,6 +9805,9 @@
       <c r="J253" t="n">
         <v>-0.6875</v>
       </c>
+      <c r="K253" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9081,6 +9842,9 @@
       <c r="J254" t="n">
         <v>-0.0357142857142857</v>
       </c>
+      <c r="K254" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9115,6 +9879,9 @@
       <c r="J255" t="n">
         <v>0.1304347826086956</v>
       </c>
+      <c r="K255" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9149,6 +9916,9 @@
       <c r="J256" t="n">
         <v>-0.2142857142857143</v>
       </c>
+      <c r="K256" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9183,6 +9953,9 @@
       <c r="J257" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K257" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9217,6 +9990,9 @@
       <c r="J258" t="n">
         <v>-0.8571428571428574</v>
       </c>
+      <c r="K258" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9251,6 +10027,9 @@
       <c r="J259" t="n">
         <v>-0.4035087719298245</v>
       </c>
+      <c r="K259" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9285,6 +10064,9 @@
       <c r="J260" t="n">
         <v>-0.75</v>
       </c>
+      <c r="K260" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9319,6 +10101,9 @@
       <c r="J261" t="n">
         <v>-0.7428571428571429</v>
       </c>
+      <c r="K261" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9353,6 +10138,9 @@
       <c r="J262" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="K262" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9387,6 +10175,9 @@
       <c r="J263" t="n">
         <v>0</v>
       </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9421,6 +10212,9 @@
       <c r="J264" t="n">
         <v>0</v>
       </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9455,6 +10249,9 @@
       <c r="J265" t="n">
         <v>-2.25</v>
       </c>
+      <c r="K265" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9489,6 +10286,9 @@
       <c r="J266" t="n">
         <v>-0.2027027027027026</v>
       </c>
+      <c r="K266" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9523,6 +10323,9 @@
       <c r="J267" t="n">
         <v>-1.2</v>
       </c>
+      <c r="K267" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9557,6 +10360,9 @@
       <c r="J268" t="n">
         <v>-0.3684210526315789</v>
       </c>
+      <c r="K268" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9591,6 +10397,9 @@
       <c r="J269" t="n">
         <v>0.25</v>
       </c>
+      <c r="K269" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9625,6 +10434,9 @@
       <c r="J270" t="n">
         <v>-2</v>
       </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9659,6 +10471,9 @@
       <c r="J271" t="n">
         <v>-0.1379310344827587</v>
       </c>
+      <c r="K271" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9693,6 +10508,9 @@
       <c r="J272" t="n">
         <v>0.09090909090909088</v>
       </c>
+      <c r="K272" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9727,6 +10545,9 @@
       <c r="J273" t="n">
         <v>0.4444444444444444</v>
       </c>
+      <c r="K273" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9761,6 +10582,9 @@
       <c r="J274" t="n">
         <v>-0.2307692307692308</v>
       </c>
+      <c r="K274" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9795,6 +10619,9 @@
       <c r="J275" t="n">
         <v>-0.8571428571428571</v>
       </c>
+      <c r="K275" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9829,6 +10656,9 @@
       <c r="J276" t="n">
         <v>-0.4444444444444444</v>
       </c>
+      <c r="K276" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9863,6 +10693,9 @@
       <c r="J277" t="n">
         <v>-0.1</v>
       </c>
+      <c r="K277" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9897,6 +10730,9 @@
       <c r="J278" t="n">
         <v>-1.230769230769231</v>
       </c>
+      <c r="K278" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9931,6 +10767,9 @@
       <c r="J279" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K279" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9965,6 +10804,9 @@
       <c r="J280" t="n">
         <v>-0.5454545454545454</v>
       </c>
+      <c r="K280" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9999,6 +10841,9 @@
       <c r="J281" t="n">
         <v>-0.1157894736842105</v>
       </c>
+      <c r="K281" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10033,6 +10878,9 @@
       <c r="J282" t="n">
         <v>-2</v>
       </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10067,6 +10915,9 @@
       <c r="J283" t="n">
         <v>0.08823529411764706</v>
       </c>
+      <c r="K283" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10101,6 +10952,9 @@
       <c r="J284" t="n">
         <v>-1</v>
       </c>
+      <c r="K284" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10135,6 +10989,9 @@
       <c r="J285" t="n">
         <v>-0.175</v>
       </c>
+      <c r="K285" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10169,6 +11026,9 @@
       <c r="J286" t="n">
         <v>-0.6166666666666667</v>
       </c>
+      <c r="K286" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10203,6 +11063,9 @@
       <c r="J287" t="n">
         <v>-0.04651162790697674</v>
       </c>
+      <c r="K287" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10237,6 +11100,9 @@
       <c r="J288" t="n">
         <v>-0.2749999999999999</v>
       </c>
+      <c r="K288" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10271,6 +11137,9 @@
       <c r="J289" t="n">
         <v>-0.4576271186440679</v>
       </c>
+      <c r="K289" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10305,6 +11174,9 @@
       <c r="J290" t="n">
         <v>-1</v>
       </c>
+      <c r="K290" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10339,6 +11211,9 @@
       <c r="J291" t="n">
         <v>-0.2988505747126438</v>
       </c>
+      <c r="K291" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10373,6 +11248,9 @@
       <c r="J292" t="n">
         <v>0.09876543209876543</v>
       </c>
+      <c r="K292" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10407,6 +11285,9 @@
       <c r="J293" t="n">
         <v>-0.4242424242424243</v>
       </c>
+      <c r="K293" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10441,6 +11322,9 @@
       <c r="J294" t="n">
         <v>1.314285714285714</v>
       </c>
+      <c r="K294" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10475,6 +11359,9 @@
       <c r="J295" t="n">
         <v>-1.074074074074074</v>
       </c>
+      <c r="K295" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10509,6 +11396,9 @@
       <c r="J296" t="n">
         <v>-0.6428571428571428</v>
       </c>
+      <c r="K296" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10543,6 +11433,9 @@
       <c r="J297" t="n">
         <v>0.05999999999999994</v>
       </c>
+      <c r="K297" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10577,6 +11470,9 @@
       <c r="J298" t="n">
         <v>-0.4347826086956522</v>
       </c>
+      <c r="K298" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10611,6 +11507,9 @@
       <c r="J299" t="n">
         <v>-0.4430379746835444</v>
       </c>
+      <c r="K299" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10645,6 +11544,9 @@
       <c r="J300" t="n">
         <v>-0.7142857142857144</v>
       </c>
+      <c r="K300" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10679,6 +11581,9 @@
       <c r="J301" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="K301" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10713,6 +11618,9 @@
       <c r="J302" t="n">
         <v>-0.3287671232876712</v>
       </c>
+      <c r="K302" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10747,6 +11655,9 @@
       <c r="J303" t="n">
         <v>0.9090909090909089</v>
       </c>
+      <c r="K303" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10781,6 +11692,9 @@
       <c r="J304" t="n">
         <v>-0.1176470588235294</v>
       </c>
+      <c r="K304" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10815,6 +11729,9 @@
       <c r="J305" t="n">
         <v>-0.6842105263157894</v>
       </c>
+      <c r="K305" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10849,6 +11766,9 @@
       <c r="J306" t="n">
         <v>-0.357142857142857</v>
       </c>
+      <c r="K306" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10883,6 +11803,9 @@
       <c r="J307" t="n">
         <v>-0.5172413793103449</v>
       </c>
+      <c r="K307" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10917,6 +11840,9 @@
       <c r="J308" t="n">
         <v>-0.07692307692307698</v>
       </c>
+      <c r="K308" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10951,6 +11877,9 @@
       <c r="J309" t="n">
         <v>-1.375</v>
       </c>
+      <c r="K309" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10985,6 +11914,9 @@
       <c r="J310" t="n">
         <v>-0.1896551724137931</v>
       </c>
+      <c r="K310" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11019,6 +11951,9 @@
       <c r="J311" t="n">
         <v>-0.2999999999999999</v>
       </c>
+      <c r="K311" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11053,6 +11988,9 @@
       <c r="J312" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="K312" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11087,6 +12025,9 @@
       <c r="J313" t="n">
         <v>-0.2000000000000001</v>
       </c>
+      <c r="K313" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11121,6 +12062,9 @@
       <c r="J314" t="n">
         <v>-0.4545454545454545</v>
       </c>
+      <c r="K314" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11155,6 +12099,9 @@
       <c r="J315" t="n">
         <v>-0.6285714285714286</v>
       </c>
+      <c r="K315" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11189,6 +12136,9 @@
       <c r="J316" t="n">
         <v>-0.2499999999999999</v>
       </c>
+      <c r="K316" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11223,6 +12173,9 @@
       <c r="J317" t="n">
         <v>-0.3181818181818181</v>
       </c>
+      <c r="K317" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11257,6 +12210,9 @@
       <c r="J318" t="n">
         <v>-0.5357142857142857</v>
       </c>
+      <c r="K318" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11291,6 +12247,9 @@
       <c r="J319" t="n">
         <v>-0.2051282051282051</v>
       </c>
+      <c r="K319" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11325,6 +12284,9 @@
       <c r="J320" t="n">
         <v>-0.1851851851851852</v>
       </c>
+      <c r="K320" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11359,6 +12321,9 @@
       <c r="J321" t="n">
         <v>-1.777777777777778</v>
       </c>
+      <c r="K321" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11393,6 +12358,9 @@
       <c r="J322" t="n">
         <v>-0.06779661016949157</v>
       </c>
+      <c r="K322" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11427,6 +12395,9 @@
       <c r="J323" t="n">
         <v>-1.375</v>
       </c>
+      <c r="K323" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11461,6 +12432,9 @@
       <c r="J324" t="n">
         <v>-0.5142857142857142</v>
       </c>
+      <c r="K324" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11495,6 +12469,9 @@
       <c r="J325" t="n">
         <v>-1</v>
       </c>
+      <c r="K325" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11529,6 +12506,9 @@
       <c r="J326" t="n">
         <v>-0.5499999999999999</v>
       </c>
+      <c r="K326" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11563,6 +12543,9 @@
       <c r="J327" t="n">
         <v>-0.4473684210526316</v>
       </c>
+      <c r="K327" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11597,6 +12580,9 @@
       <c r="J328" t="n">
         <v>0.1176470588235294</v>
       </c>
+      <c r="K328" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11631,6 +12617,9 @@
       <c r="J329" t="n">
         <v>-0.4210526315789475</v>
       </c>
+      <c r="K329" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11665,6 +12654,9 @@
       <c r="J330" t="n">
         <v>-0.423076923076923</v>
       </c>
+      <c r="K330" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11699,6 +12691,9 @@
       <c r="J331" t="n">
         <v>-0.2571428571428572</v>
       </c>
+      <c r="K331" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11733,6 +12728,9 @@
       <c r="J332" t="n">
         <v>-0.9999999999999999</v>
       </c>
+      <c r="K332" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11767,6 +12765,9 @@
       <c r="J333" t="n">
         <v>-0.1428571428571428</v>
       </c>
+      <c r="K333" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11801,6 +12802,9 @@
       <c r="J334" t="n">
         <v>0</v>
       </c>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11835,6 +12839,9 @@
       <c r="J335" t="n">
         <v>1.25</v>
       </c>
+      <c r="K335" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11869,6 +12876,9 @@
       <c r="J336" t="n">
         <v>-0.2</v>
       </c>
+      <c r="K336" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11903,6 +12913,9 @@
       <c r="J337" t="n">
         <v>-0.9999999999999999</v>
       </c>
+      <c r="K337" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -11937,6 +12950,9 @@
       <c r="J338" t="n">
         <v>-0.5238095238095238</v>
       </c>
+      <c r="K338" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -11969,6 +12985,9 @@
       <c r="J339" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K339" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12003,6 +13022,9 @@
       <c r="J340" t="n">
         <v>-0.53125</v>
       </c>
+      <c r="K340" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12037,6 +13059,9 @@
       <c r="J341" t="n">
         <v>0.6944444444444444</v>
       </c>
+      <c r="K341" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -12071,6 +13096,9 @@
       <c r="J342" t="n">
         <v>-0.3947368421052632</v>
       </c>
+      <c r="K342" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -12105,6 +13133,9 @@
       <c r="J343" t="n">
         <v>0.2702702702702703</v>
       </c>
+      <c r="K343" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -12139,6 +13170,9 @@
       <c r="J344" t="n">
         <v>-0.3493975903614457</v>
       </c>
+      <c r="K344" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -12173,6 +13207,9 @@
       <c r="J345" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K345" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -12207,6 +13244,9 @@
       <c r="J346" t="n">
         <v>-0.2063492063492063</v>
       </c>
+      <c r="K346" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -12241,6 +13281,9 @@
       <c r="J347" t="n">
         <v>-0.4285714285714285</v>
       </c>
+      <c r="K347" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -12275,6 +13318,9 @@
       <c r="J348" t="n">
         <v>-0.3373493975903615</v>
       </c>
+      <c r="K348" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -12309,6 +13355,9 @@
       <c r="J349" t="n">
         <v>-0.2758620689655172</v>
       </c>
+      <c r="K349" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -12343,6 +13392,9 @@
       <c r="J350" t="n">
         <v>-0.7999999999999999</v>
       </c>
+      <c r="K350" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -12377,6 +13429,9 @@
       <c r="J351" t="n">
         <v>-0.6388888888888888</v>
       </c>
+      <c r="K351" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -12411,6 +13466,9 @@
       <c r="J352" t="n">
         <v>-0.5714285714285716</v>
       </c>
+      <c r="K352" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -12445,6 +13503,9 @@
       <c r="J353" t="n">
         <v>-0.2000000000000002</v>
       </c>
+      <c r="K353" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -12479,6 +13540,9 @@
       <c r="J354" t="n">
         <v>-0.5588235294117647</v>
       </c>
+      <c r="K354" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -12513,6 +13577,9 @@
       <c r="J355" t="n">
         <v>-0.4285714285714284</v>
       </c>
+      <c r="K355" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -12547,6 +13614,9 @@
       <c r="J356" t="n">
         <v>-0.4642857142857143</v>
       </c>
+      <c r="K356" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -12581,6 +13651,9 @@
       <c r="J357" t="n">
         <v>-0.5094339622641509</v>
       </c>
+      <c r="K357" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -12615,6 +13688,9 @@
       <c r="J358" t="n">
         <v>-0.3048780487804879</v>
       </c>
+      <c r="K358" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -12649,6 +13725,9 @@
       <c r="J359" t="n">
         <v>-0.8615384615384616</v>
       </c>
+      <c r="K359" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -12683,6 +13762,9 @@
       <c r="J360" t="n">
         <v>0.15</v>
       </c>
+      <c r="K360" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -12717,6 +13799,9 @@
       <c r="J361" t="n">
         <v>-0.4883720930232558</v>
       </c>
+      <c r="K361" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -12751,6 +13836,9 @@
       <c r="J362" t="n">
         <v>-0.1857142857142857</v>
       </c>
+      <c r="K362" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -12785,6 +13873,9 @@
       <c r="J363" t="n">
         <v>-0.3064516129032258</v>
       </c>
+      <c r="K363" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -12819,6 +13910,9 @@
       <c r="J364" t="n">
         <v>-1.7</v>
       </c>
+      <c r="K364" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -12853,6 +13947,9 @@
       <c r="J365" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K365" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -12887,6 +13984,9 @@
       <c r="J366" t="n">
         <v>-0.2602739726027397</v>
       </c>
+      <c r="K366" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -12921,6 +14021,9 @@
       <c r="J367" t="n">
         <v>-0.8387096774193548</v>
       </c>
+      <c r="K367" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -12955,6 +14058,9 @@
       <c r="J368" t="n">
         <v>-0.417910447761194</v>
       </c>
+      <c r="K368" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -12989,6 +14095,9 @@
       <c r="J369" t="n">
         <v>-0.6060606060606061</v>
       </c>
+      <c r="K369" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -13023,6 +14132,9 @@
       <c r="J370" t="n">
         <v>-0.2807017543859649</v>
       </c>
+      <c r="K370" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -13057,6 +14169,9 @@
       <c r="J371" t="n">
         <v>-0.2307692307692308</v>
       </c>
+      <c r="K371" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -13091,6 +14206,9 @@
       <c r="J372" t="n">
         <v>0.71875</v>
       </c>
+      <c r="K372" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -13125,6 +14243,9 @@
       <c r="J373" t="n">
         <v>0.1304347826086956</v>
       </c>
+      <c r="K373" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -13159,6 +14280,9 @@
       <c r="J374" t="n">
         <v>0</v>
       </c>
+      <c r="K374" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -13193,6 +14317,9 @@
       <c r="J375" t="n">
         <v>0.2857142857142856</v>
       </c>
+      <c r="K375" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -13227,6 +14354,9 @@
       <c r="J376" t="n">
         <v>-0.07272727272727272</v>
       </c>
+      <c r="K376" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -13261,6 +14391,9 @@
       <c r="J377" t="n">
         <v>-0.2857142857142858</v>
       </c>
+      <c r="K377" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -13295,6 +14428,9 @@
       <c r="J378" t="n">
         <v>0.3571428571428572</v>
       </c>
+      <c r="K378" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -13329,6 +14465,9 @@
       <c r="J379" t="n">
         <v>-0.3181818181818182</v>
       </c>
+      <c r="K379" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -13363,6 +14502,9 @@
       <c r="J380" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="K380" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -13397,6 +14539,9 @@
       <c r="J381" t="n">
         <v>-0.75</v>
       </c>
+      <c r="K381" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -13431,6 +14576,9 @@
       <c r="J382" t="n">
         <v>-1.333333333333333</v>
       </c>
+      <c r="K382" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -13465,6 +14613,9 @@
       <c r="J383" t="n">
         <v>0.8974358974358974</v>
       </c>
+      <c r="K383" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -13499,6 +14650,9 @@
       <c r="J384" t="n">
         <v>-0.6875</v>
       </c>
+      <c r="K384" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -13533,6 +14687,9 @@
       <c r="J385" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K385" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -13567,6 +14724,9 @@
       <c r="J386" t="n">
         <v>-0.4285714285714285</v>
       </c>
+      <c r="K386" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -13601,6 +14761,9 @@
       <c r="J387" t="n">
         <v>-0.3333333333333333</v>
       </c>
+      <c r="K387" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -13635,6 +14798,9 @@
       <c r="J388" t="n">
         <v>-0.3833333333333334</v>
       </c>
+      <c r="K388" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -13669,6 +14835,9 @@
       <c r="J389" t="n">
         <v>0.25</v>
       </c>
+      <c r="K389" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -13703,6 +14872,9 @@
       <c r="J390" t="n">
         <v>0.5161290322580645</v>
       </c>
+      <c r="K390" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -13737,6 +14909,9 @@
       <c r="J391" t="n">
         <v>-1.294117647058823</v>
       </c>
+      <c r="K391" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -13771,6 +14946,9 @@
       <c r="J392" t="n">
         <v>-1.666666666666667</v>
       </c>
+      <c r="K392" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -13805,6 +14983,9 @@
       <c r="J393" t="n">
         <v>-1.666666666666666</v>
       </c>
+      <c r="K393" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -13839,6 +15020,9 @@
       <c r="J394" t="n">
         <v>0.7249999999999999</v>
       </c>
+      <c r="K394" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -13873,6 +15057,9 @@
       <c r="J395" t="n">
         <v>0.09999999999999998</v>
       </c>
+      <c r="K395" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -13907,6 +15094,9 @@
       <c r="J396" t="n">
         <v>-0.8333333333333333</v>
       </c>
+      <c r="K396" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -13941,6 +15131,9 @@
       <c r="J397" t="n">
         <v>-0.2317073170731707</v>
       </c>
+      <c r="K397" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -13975,6 +15168,9 @@
       <c r="J398" t="n">
         <v>-0.125</v>
       </c>
+      <c r="K398" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -14009,6 +15205,9 @@
       <c r="J399" t="n">
         <v>0.03125</v>
       </c>
+      <c r="K399" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -14043,6 +15242,9 @@
       <c r="J400" t="n">
         <v>-0.0625</v>
       </c>
+      <c r="K400" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -14077,6 +15279,9 @@
       <c r="J401" t="n">
         <v>-0.59375</v>
       </c>
+      <c r="K401" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -14111,6 +15316,9 @@
       <c r="J402" t="n">
         <v>-0.4583333333333334</v>
       </c>
+      <c r="K402" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -14145,6 +15353,9 @@
       <c r="J403" t="n">
         <v>-0.6363636363636364</v>
       </c>
+      <c r="K403" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -14179,6 +15390,9 @@
       <c r="J404" t="n">
         <v>-0.2173913043478259</v>
       </c>
+      <c r="K404" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -14213,6 +15427,9 @@
       <c r="J405" t="n">
         <v>-0.1176470588235294</v>
       </c>
+      <c r="K405" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -14247,6 +15464,9 @@
       <c r="J406" t="n">
         <v>0.1555555555555556</v>
       </c>
+      <c r="K406" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -14281,6 +15501,9 @@
       <c r="J407" t="n">
         <v>-0.4216867469879518</v>
       </c>
+      <c r="K407" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -14315,6 +15538,9 @@
       <c r="J408" t="n">
         <v>-0.161764705882353</v>
       </c>
+      <c r="K408" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -14349,6 +15575,9 @@
       <c r="J409" t="n">
         <v>-2</v>
       </c>
+      <c r="K409" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -14383,6 +15612,9 @@
       <c r="J410" t="n">
         <v>0</v>
       </c>
+      <c r="K410" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -14417,6 +15649,9 @@
       <c r="J411" t="n">
         <v>-0.4705882352941176</v>
       </c>
+      <c r="K411" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -14451,6 +15686,9 @@
       <c r="J412" t="n">
         <v>-0.5263157894736842</v>
       </c>
+      <c r="K412" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -14485,6 +15723,9 @@
       <c r="J413" t="n">
         <v>-0.4333333333333333</v>
       </c>
+      <c r="K413" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -14519,6 +15760,9 @@
       <c r="J414" t="n">
         <v>-1.3</v>
       </c>
+      <c r="K414" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -14553,6 +15797,9 @@
       <c r="J415" t="n">
         <v>-0.4920634920634922</v>
       </c>
+      <c r="K415" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -14587,6 +15834,9 @@
       <c r="J416" t="n">
         <v>-2</v>
       </c>
+      <c r="K416" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -14621,6 +15871,9 @@
       <c r="J417" t="n">
         <v>-0.75</v>
       </c>
+      <c r="K417" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -14655,6 +15908,9 @@
       <c r="J418" t="n">
         <v>-0.2325581395348837</v>
       </c>
+      <c r="K418" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -14689,6 +15945,9 @@
       <c r="J419" t="n">
         <v>-0.4999999999999999</v>
       </c>
+      <c r="K419" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -14723,6 +15982,9 @@
       <c r="J420" t="n">
         <v>-0.7</v>
       </c>
+      <c r="K420" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -14757,6 +16019,9 @@
       <c r="J421" t="n">
         <v>-1.000000000000001</v>
       </c>
+      <c r="K421" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -14791,6 +16056,9 @@
       <c r="J422" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K422" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -14825,6 +16093,9 @@
       <c r="J423" t="n">
         <v>1.75</v>
       </c>
+      <c r="K423" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -14859,6 +16130,9 @@
       <c r="J424" t="n">
         <v>-0.5692307692307692</v>
       </c>
+      <c r="K424" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -14893,6 +16167,9 @@
       <c r="J425" t="n">
         <v>0.5</v>
       </c>
+      <c r="K425" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -14927,6 +16204,9 @@
       <c r="J426" t="n">
         <v>0.09999999999999998</v>
       </c>
+      <c r="K426" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -14961,6 +16241,9 @@
       <c r="J427" t="n">
         <v>-0.2456140350877192</v>
       </c>
+      <c r="K427" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -14995,6 +16278,9 @@
       <c r="J428" t="n">
         <v>-0.08333333333333331</v>
       </c>
+      <c r="K428" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -15029,6 +16315,9 @@
       <c r="J429" t="n">
         <v>0</v>
       </c>
+      <c r="K429" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -15063,6 +16352,9 @@
       <c r="J430" t="n">
         <v>-0.4545454545454545</v>
       </c>
+      <c r="K430" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -15097,6 +16389,9 @@
       <c r="J431" t="n">
         <v>-0.7857142857142857</v>
       </c>
+      <c r="K431" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -15131,6 +16426,9 @@
       <c r="J432" t="n">
         <v>-0.1351351351351351</v>
       </c>
+      <c r="K432" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -15165,6 +16463,9 @@
       <c r="J433" t="n">
         <v>0.3333333333333334</v>
       </c>
+      <c r="K433" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -15199,6 +16500,9 @@
       <c r="J434" t="n">
         <v>-0.9411764705882353</v>
       </c>
+      <c r="K434" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -15233,6 +16537,9 @@
       <c r="J435" t="n">
         <v>0.3428571428571429</v>
       </c>
+      <c r="K435" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -15267,6 +16574,9 @@
       <c r="J436" t="n">
         <v>-0.3461538461538461</v>
       </c>
+      <c r="K436" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -15301,6 +16611,9 @@
       <c r="J437" t="n">
         <v>-0.2380952380952381</v>
       </c>
+      <c r="K437" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -15335,6 +16648,9 @@
       <c r="J438" t="n">
         <v>-4</v>
       </c>
+      <c r="K438" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -15369,6 +16685,9 @@
       <c r="J439" t="n">
         <v>-0.2413793103448275</v>
       </c>
+      <c r="K439" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -15403,6 +16722,9 @@
       <c r="J440" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K440" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -15437,6 +16759,9 @@
       <c r="J441" t="n">
         <v>-0.3623188405797101</v>
       </c>
+      <c r="K441" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -15471,6 +16796,9 @@
       <c r="J442" t="n">
         <v>-0.276595744680851</v>
       </c>
+      <c r="K442" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -15505,6 +16833,9 @@
       <c r="J443" t="n">
         <v>-0.875</v>
       </c>
+      <c r="K443" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -15539,6 +16870,9 @@
       <c r="J444" t="n">
         <v>-0.2142857142857143</v>
       </c>
+      <c r="K444" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -15573,6 +16907,9 @@
       <c r="J445" t="n">
         <v>-0.3555555555555555</v>
       </c>
+      <c r="K445" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -15607,6 +16944,9 @@
       <c r="J446" t="n">
         <v>-0.6744186046511627</v>
       </c>
+      <c r="K446" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -15641,6 +16981,9 @@
       <c r="J447" t="n">
         <v>-0.2</v>
       </c>
+      <c r="K447" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -15675,6 +17018,9 @@
       <c r="J448" t="n">
         <v>-0.3333333333333333</v>
       </c>
+      <c r="K448" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -15709,6 +17055,9 @@
       <c r="J449" t="n">
         <v>-0.4680851063829787</v>
       </c>
+      <c r="K449" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -15743,6 +17092,9 @@
       <c r="J450" t="n">
         <v>-0.64</v>
       </c>
+      <c r="K450" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -15777,6 +17129,9 @@
       <c r="J451" t="n">
         <v>-0.5333333333333333</v>
       </c>
+      <c r="K451" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -15811,6 +17166,9 @@
       <c r="J452" t="n">
         <v>-0.3088235294117647</v>
       </c>
+      <c r="K452" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -15845,6 +17203,9 @@
       <c r="J453" t="n">
         <v>-0.1041666666666667</v>
       </c>
+      <c r="K453" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -15879,6 +17240,9 @@
       <c r="J454" t="n">
         <v>-0.2058823529411765</v>
       </c>
+      <c r="K454" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -15913,6 +17277,9 @@
       <c r="J455" t="n">
         <v>-0.8148148148148149</v>
       </c>
+      <c r="K455" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -15947,6 +17314,9 @@
       <c r="J456" t="n">
         <v>0.3043478260869565</v>
       </c>
+      <c r="K456" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -15981,6 +17351,9 @@
       <c r="J457" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K457" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -16015,6 +17388,9 @@
       <c r="J458" t="n">
         <v>-0.208955223880597</v>
       </c>
+      <c r="K458" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -16049,6 +17425,9 @@
       <c r="J459" t="n">
         <v>-3</v>
       </c>
+      <c r="K459" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -16083,6 +17462,9 @@
       <c r="J460" t="n">
         <v>-0.48</v>
       </c>
+      <c r="K460" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -16117,6 +17499,9 @@
       <c r="J461" t="n">
         <v>-0.5970149253731343</v>
       </c>
+      <c r="K461" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -16151,6 +17536,9 @@
       <c r="J462" t="n">
         <v>-0.4444444444444444</v>
       </c>
+      <c r="K462" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -16185,6 +17573,9 @@
       <c r="J463" t="n">
         <v>-0.7777777777777778</v>
       </c>
+      <c r="K463" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -16219,6 +17610,9 @@
       <c r="J464" t="n">
         <v>0.9411764705882353</v>
       </c>
+      <c r="K464" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -16253,6 +17647,9 @@
       <c r="J465" t="n">
         <v>-0.4788732394366199</v>
       </c>
+      <c r="K465" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -16287,6 +17684,9 @@
       <c r="J466" t="n">
         <v>-0.3636363636363635</v>
       </c>
+      <c r="K466" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -16321,6 +17721,9 @@
       <c r="J467" t="n">
         <v>-0.3333333333333335</v>
       </c>
+      <c r="K467" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -16355,6 +17758,9 @@
       <c r="J468" t="n">
         <v>-0.1333333333333333</v>
       </c>
+      <c r="K468" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -16389,6 +17795,9 @@
       <c r="J469" t="n">
         <v>0.4102564102564102</v>
       </c>
+      <c r="K469" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -16423,6 +17832,9 @@
       <c r="J470" t="n">
         <v>-0.7222222222222223</v>
       </c>
+      <c r="K470" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -16457,6 +17869,9 @@
       <c r="J471" t="n">
         <v>0.02777777777777776</v>
       </c>
+      <c r="K471" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -16491,6 +17906,9 @@
       <c r="J472" t="n">
         <v>-0.4230769230769231</v>
       </c>
+      <c r="K472" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -16525,6 +17943,9 @@
       <c r="J473" t="n">
         <v>-0.8666666666666665</v>
       </c>
+      <c r="K473" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -16559,6 +17980,9 @@
       <c r="J474" t="n">
         <v>-0.5172413793103449</v>
       </c>
+      <c r="K474" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -16593,6 +18017,9 @@
       <c r="J475" t="n">
         <v>0.03703703703703703</v>
       </c>
+      <c r="K475" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -16627,6 +18054,9 @@
       <c r="J476" t="n">
         <v>-0.2380952380952381</v>
       </c>
+      <c r="K476" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -16661,6 +18091,9 @@
       <c r="J477" t="n">
         <v>-0.3125</v>
       </c>
+      <c r="K477" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -16695,6 +18128,9 @@
       <c r="J478" t="n">
         <v>-0.3809523809523809</v>
       </c>
+      <c r="K478" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -16729,6 +18165,9 @@
       <c r="J479" t="n">
         <v>-0.4772727272727272</v>
       </c>
+      <c r="K479" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -16763,6 +18202,9 @@
       <c r="J480" t="n">
         <v>-0.2352941176470588</v>
       </c>
+      <c r="K480" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -16797,6 +18239,9 @@
       <c r="J481" t="n">
         <v>-0.4210526315789474</v>
       </c>
+      <c r="K481" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -16831,6 +18276,9 @@
       <c r="J482" t="n">
         <v>-0.03846153846153844</v>
       </c>
+      <c r="K482" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -16865,6 +18313,9 @@
       <c r="J483" t="n">
         <v>0.4444444444444446</v>
       </c>
+      <c r="K483" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -16899,6 +18350,9 @@
       <c r="J484" t="n">
         <v>0.5652173913043478</v>
       </c>
+      <c r="K484" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -16933,6 +18387,9 @@
       <c r="J485" t="n">
         <v>-0.2307692307692308</v>
       </c>
+      <c r="K485" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -16967,6 +18424,9 @@
       <c r="J486" t="n">
         <v>-0.6764705882352942</v>
       </c>
+      <c r="K486" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -17001,6 +18461,9 @@
       <c r="J487" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K487" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -17035,6 +18498,9 @@
       <c r="J488" t="n">
         <v>-0.2903225806451613</v>
       </c>
+      <c r="K488" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -17069,6 +18535,9 @@
       <c r="J489" t="n">
         <v>-0.131578947368421</v>
       </c>
+      <c r="K489" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -17103,6 +18572,9 @@
       <c r="J490" t="n">
         <v>-0.4166666666666665</v>
       </c>
+      <c r="K490" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -17137,6 +18609,9 @@
       <c r="J491" t="n">
         <v>-0.3461538461538463</v>
       </c>
+      <c r="K491" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -17171,6 +18646,9 @@
       <c r="J492" t="n">
         <v>1.269230769230769</v>
       </c>
+      <c r="K492" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -17205,6 +18683,9 @@
       <c r="J493" t="n">
         <v>-0.3055555555555556</v>
       </c>
+      <c r="K493" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -17239,6 +18720,9 @@
       <c r="J494" t="n">
         <v>-0.3888888888888888</v>
       </c>
+      <c r="K494" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -17273,6 +18757,9 @@
       <c r="J495" t="n">
         <v>-0.8333333333333333</v>
       </c>
+      <c r="K495" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -17307,6 +18794,9 @@
       <c r="J496" t="n">
         <v>-0.8</v>
       </c>
+      <c r="K496" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -17341,6 +18831,9 @@
       <c r="J497" t="n">
         <v>0.09375</v>
       </c>
+      <c r="K497" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -17375,6 +18868,9 @@
       <c r="J498" t="n">
         <v>0.5</v>
       </c>
+      <c r="K498" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -17409,6 +18905,9 @@
       <c r="J499" t="n">
         <v>-0.2765957446808511</v>
       </c>
+      <c r="K499" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -17443,6 +18942,9 @@
       <c r="J500" t="n">
         <v>-0.4477611940298508</v>
       </c>
+      <c r="K500" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -17477,6 +18979,9 @@
       <c r="J501" t="n">
         <v>0.4</v>
       </c>
+      <c r="K501" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -17511,6 +19016,9 @@
       <c r="J502" t="n">
         <v>0</v>
       </c>
+      <c r="K502" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -17545,6 +19053,9 @@
       <c r="J503" t="n">
         <v>-0.390625</v>
       </c>
+      <c r="K503" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -17579,6 +19090,9 @@
       <c r="J504" t="n">
         <v>-0.75</v>
       </c>
+      <c r="K504" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -17613,6 +19127,9 @@
       <c r="J505" t="n">
         <v>-1.090909090909091</v>
       </c>
+      <c r="K505" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -17647,6 +19164,9 @@
       <c r="J506" t="n">
         <v>-0.2424242424242424</v>
       </c>
+      <c r="K506" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -17681,6 +19201,9 @@
       <c r="J507" t="n">
         <v>-0.3623188405797102</v>
       </c>
+      <c r="K507" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -17715,6 +19238,9 @@
       <c r="J508" t="n">
         <v>0.2333333333333333</v>
       </c>
+      <c r="K508" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -17749,6 +19275,9 @@
       <c r="J509" t="n">
         <v>0.2727272727272727</v>
       </c>
+      <c r="K509" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -17783,6 +19312,9 @@
       <c r="J510" t="n">
         <v>-0.1363636363636364</v>
       </c>
+      <c r="K510" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -17817,6 +19349,9 @@
       <c r="J511" t="n">
         <v>0.1282051282051282</v>
       </c>
+      <c r="K511" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -17851,6 +19386,9 @@
       <c r="J512" t="n">
         <v>0.2051282051282051</v>
       </c>
+      <c r="K512" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -17885,6 +19423,9 @@
       <c r="J513" t="n">
         <v>-0.4915254237288136</v>
       </c>
+      <c r="K513" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -17919,6 +19460,9 @@
       <c r="J514" t="n">
         <v>-0.1666666666666667</v>
       </c>
+      <c r="K514" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -17953,6 +19497,9 @@
       <c r="J515" t="n">
         <v>-0.8666666666666667</v>
       </c>
+      <c r="K515" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -17987,6 +19534,9 @@
       <c r="J516" t="n">
         <v>-1.111111111111111</v>
       </c>
+      <c r="K516" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -18021,6 +19571,9 @@
       <c r="J517" t="n">
         <v>-0.4000000000000001</v>
       </c>
+      <c r="K517" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -18055,6 +19608,9 @@
       <c r="J518" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K518" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -18089,6 +19645,9 @@
       <c r="J519" t="n">
         <v>-1</v>
       </c>
+      <c r="K519" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -18123,6 +19682,9 @@
       <c r="J520" t="n">
         <v>0.08108108108108109</v>
       </c>
+      <c r="K520" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -18157,6 +19719,9 @@
       <c r="J521" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K521" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -18191,6 +19756,9 @@
       <c r="J522" t="n">
         <v>-0.4444444444444444</v>
       </c>
+      <c r="K522" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -18225,6 +19793,9 @@
       <c r="J523" t="n">
         <v>0</v>
       </c>
+      <c r="K523" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -18259,6 +19830,9 @@
       <c r="J524" t="n">
         <v>-0.4516129032258065</v>
       </c>
+      <c r="K524" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -18293,6 +19867,9 @@
       <c r="J525" t="n">
         <v>-1</v>
       </c>
+      <c r="K525" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -18327,6 +19904,9 @@
       <c r="J526" t="n">
         <v>-0.3809523809523809</v>
       </c>
+      <c r="K526" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -18361,6 +19941,9 @@
       <c r="J527" t="n">
         <v>-0.273972602739726</v>
       </c>
+      <c r="K527" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -18395,6 +19978,9 @@
       <c r="J528" t="n">
         <v>-0.5294117647058827</v>
       </c>
+      <c r="K528" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -18429,6 +20015,9 @@
       <c r="J529" t="n">
         <v>0.96</v>
       </c>
+      <c r="K529" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -18463,6 +20052,9 @@
       <c r="J530" t="n">
         <v>-0.6428571428571428</v>
       </c>
+      <c r="K530" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -18497,6 +20089,9 @@
       <c r="J531" t="n">
         <v>-0.6666666666666667</v>
       </c>
+      <c r="K531" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -18531,6 +20126,9 @@
       <c r="J532" t="n">
         <v>-0.2857142857142858</v>
       </c>
+      <c r="K532" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -18565,6 +20163,9 @@
       <c r="J533" t="n">
         <v>-1.318181818181818</v>
       </c>
+      <c r="K533" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -18599,6 +20200,9 @@
       <c r="J534" t="n">
         <v>0.7073170731707317</v>
       </c>
+      <c r="K534" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -18633,6 +20237,9 @@
       <c r="J535" t="n">
         <v>-0.4285714285714284</v>
       </c>
+      <c r="K535" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -18667,6 +20274,9 @@
       <c r="J536" t="n">
         <v>-0.3194444444444445</v>
       </c>
+      <c r="K536" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -18701,6 +20311,9 @@
       <c r="J537" t="n">
         <v>-1.821428571428571</v>
       </c>
+      <c r="K537" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -18735,6 +20348,9 @@
       <c r="J538" t="n">
         <v>-0.3023255813953487</v>
       </c>
+      <c r="K538" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -18769,6 +20385,9 @@
       <c r="J539" t="n">
         <v>-1</v>
       </c>
+      <c r="K539" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -18803,6 +20422,9 @@
       <c r="J540" t="n">
         <v>0</v>
       </c>
+      <c r="K540" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -18837,6 +20459,9 @@
       <c r="J541" t="n">
         <v>-0.2000000000000001</v>
       </c>
+      <c r="K541" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -18871,6 +20496,9 @@
       <c r="J542" t="n">
         <v>-0.2666666666666666</v>
       </c>
+      <c r="K542" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -18905,6 +20533,9 @@
       <c r="J543" t="n">
         <v>0</v>
       </c>
+      <c r="K543" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -18939,6 +20570,9 @@
       <c r="J544" t="n">
         <v>-0.7999999999999998</v>
       </c>
+      <c r="K544" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -18973,6 +20607,9 @@
       <c r="J545" t="n">
         <v>0.3548387096774194</v>
       </c>
+      <c r="K545" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -19007,6 +20644,9 @@
       <c r="J546" t="n">
         <v>-0.03703703703703698</v>
       </c>
+      <c r="K546" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -19041,6 +20681,9 @@
       <c r="J547" t="n">
         <v>-0.2380952380952381</v>
       </c>
+      <c r="K547" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -19075,6 +20718,9 @@
       <c r="J548" t="n">
         <v>0</v>
       </c>
+      <c r="K548" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -19109,6 +20755,9 @@
       <c r="J549" t="n">
         <v>-0.1428571428571428</v>
       </c>
+      <c r="K549" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -19143,6 +20792,9 @@
       <c r="J550" t="n">
         <v>-0.4583333333333334</v>
       </c>
+      <c r="K550" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -19177,6 +20829,9 @@
       <c r="J551" t="n">
         <v>-0.6000000000000001</v>
       </c>
+      <c r="K551" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -19211,6 +20866,9 @@
       <c r="J552" t="n">
         <v>-0.4137931034482758</v>
       </c>
+      <c r="K552" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -19245,6 +20903,9 @@
       <c r="J553" t="n">
         <v>1.5</v>
       </c>
+      <c r="K553" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -19279,6 +20940,9 @@
       <c r="J554" t="n">
         <v>-0.5333333333333333</v>
       </c>
+      <c r="K554" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -19313,6 +20977,9 @@
       <c r="J555" t="n">
         <v>-1.2</v>
       </c>
+      <c r="K555" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -19347,6 +21014,9 @@
       <c r="J556" t="n">
         <v>-0.1044776119402985</v>
       </c>
+      <c r="K556" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -19381,6 +21051,9 @@
       <c r="J557" t="n">
         <v>-0.3188405797101449</v>
       </c>
+      <c r="K557" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
@@ -19415,6 +21088,9 @@
       <c r="J558" t="n">
         <v>-0.1351351351351351</v>
       </c>
+      <c r="K558" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -19449,6 +21125,9 @@
       <c r="J559" t="n">
         <v>-0.125</v>
       </c>
+      <c r="K559" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -19483,6 +21162,9 @@
       <c r="J560" t="n">
         <v>-0.3833333333333333</v>
       </c>
+      <c r="K560" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -19517,6 +21199,9 @@
       <c r="J561" t="n">
         <v>-0.4545454545454546</v>
       </c>
+      <c r="K561" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -19551,6 +21236,9 @@
       <c r="J562" t="n">
         <v>-0.1304347826086957</v>
       </c>
+      <c r="K562" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -19585,6 +21273,9 @@
       <c r="J563" t="n">
         <v>-0.7777777777777777</v>
       </c>
+      <c r="K563" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -19619,6 +21310,9 @@
       <c r="J564" t="n">
         <v>0.3333333333333334</v>
       </c>
+      <c r="K564" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -19653,6 +21347,9 @@
       <c r="J565" t="n">
         <v>-0.2</v>
       </c>
+      <c r="K565" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -19687,6 +21384,9 @@
       <c r="J566" t="n">
         <v>-0.1058823529411764</v>
       </c>
+      <c r="K566" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -19721,6 +21421,9 @@
       <c r="J567" t="n">
         <v>-0.3055555555555555</v>
       </c>
+      <c r="K567" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -19755,6 +21458,9 @@
       <c r="J568" t="n">
         <v>-0.7297297297297298</v>
       </c>
+      <c r="K568" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -19789,6 +21495,9 @@
       <c r="J569" t="n">
         <v>-0.8888888888888888</v>
       </c>
+      <c r="K569" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -19823,6 +21532,9 @@
       <c r="J570" t="n">
         <v>0.25</v>
       </c>
+      <c r="K570" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -19857,6 +21569,9 @@
       <c r="J571" t="n">
         <v>-1.666666666666667</v>
       </c>
+      <c r="K571" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -19891,6 +21606,9 @@
       <c r="J572" t="n">
         <v>0.5263157894736843</v>
       </c>
+      <c r="K572" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -19925,6 +21643,9 @@
       <c r="J573" t="n">
         <v>-0.3333333333333335</v>
       </c>
+      <c r="K573" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -19959,6 +21680,9 @@
       <c r="J574" t="n">
         <v>-0.8666666666666667</v>
       </c>
+      <c r="K574" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -19993,6 +21717,9 @@
       <c r="J575" t="n">
         <v>-0.625</v>
       </c>
+      <c r="K575" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
@@ -20027,6 +21754,9 @@
       <c r="J576" t="n">
         <v>-0.9268292682926829</v>
       </c>
+      <c r="K576" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -20061,6 +21791,9 @@
       <c r="J577" t="n">
         <v>-0.8333333333333334</v>
       </c>
+      <c r="K577" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
@@ -20095,6 +21828,9 @@
       <c r="J578" t="n">
         <v>-0.2878787878787878</v>
       </c>
+      <c r="K578" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
@@ -20129,6 +21865,9 @@
       <c r="J579" t="n">
         <v>0.02631578947368421</v>
       </c>
+      <c r="K579" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
@@ -20163,6 +21902,9 @@
       <c r="J580" t="n">
         <v>1.578947368421053</v>
       </c>
+      <c r="K580" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
@@ -20197,6 +21939,9 @@
       <c r="J581" t="n">
         <v>-0.14</v>
       </c>
+      <c r="K581" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -20231,6 +21976,9 @@
       <c r="J582" t="n">
         <v>-1.166666666666667</v>
       </c>
+      <c r="K582" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -20265,6 +22013,9 @@
       <c r="J583" t="n">
         <v>-0.5535714285714286</v>
       </c>
+      <c r="K583" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -20299,6 +22050,9 @@
       <c r="J584" t="n">
         <v>-0.01086956521739124</v>
       </c>
+      <c r="K584" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -20333,6 +22087,9 @@
       <c r="J585" t="n">
         <v>0</v>
       </c>
+      <c r="K585" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -20367,6 +22124,9 @@
       <c r="J586" t="n">
         <v>-0.4166666666666667</v>
       </c>
+      <c r="K586" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -20401,6 +22161,9 @@
       <c r="J587" t="n">
         <v>0</v>
       </c>
+      <c r="K587" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -20435,6 +22198,9 @@
       <c r="J588" t="n">
         <v>-0.5961538461538461</v>
       </c>
+      <c r="K588" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -20469,6 +22235,9 @@
       <c r="J589" t="n">
         <v>-0.125</v>
       </c>
+      <c r="K589" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -20503,6 +22272,9 @@
       <c r="J590" t="n">
         <v>-0.5882352941176472</v>
       </c>
+      <c r="K590" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -20537,6 +22309,9 @@
       <c r="J591" t="n">
         <v>0.5</v>
       </c>
+      <c r="K591" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -20571,6 +22346,9 @@
       <c r="J592" t="n">
         <v>-0.3461538461538461</v>
       </c>
+      <c r="K592" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -20605,6 +22383,9 @@
       <c r="J593" t="n">
         <v>-0.7241379310344827</v>
       </c>
+      <c r="K593" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -20639,6 +22420,9 @@
       <c r="J594" t="n">
         <v>-0.3076923076923077</v>
       </c>
+      <c r="K594" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
@@ -20673,6 +22457,9 @@
       <c r="J595" t="n">
         <v>-0.689655172413793</v>
       </c>
+      <c r="K595" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -20707,6 +22494,9 @@
       <c r="J596" t="n">
         <v>-0.4210526315789473</v>
       </c>
+      <c r="K596" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -20741,6 +22531,9 @@
       <c r="J597" t="n">
         <v>-0.5714285714285714</v>
       </c>
+      <c r="K597" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -20775,6 +22568,9 @@
       <c r="J598" t="n">
         <v>-0.3611111111111112</v>
       </c>
+      <c r="K598" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -20809,6 +22605,9 @@
       <c r="J599" t="n">
         <v>-0.4878048780487804</v>
       </c>
+      <c r="K599" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
@@ -20843,6 +22642,9 @@
       <c r="J600" t="n">
         <v>-0.52</v>
       </c>
+      <c r="K600" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -20877,6 +22679,9 @@
       <c r="J601" t="n">
         <v>-0.7142857142857142</v>
       </c>
+      <c r="K601" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -20911,6 +22716,9 @@
       <c r="J602" t="n">
         <v>-0.3835616438356165</v>
       </c>
+      <c r="K602" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -20945,6 +22753,9 @@
       <c r="J603" t="n">
         <v>-0.40625</v>
       </c>
+      <c r="K603" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
@@ -20979,6 +22790,9 @@
       <c r="J604" t="n">
         <v>0.3928571428571429</v>
       </c>
+      <c r="K604" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
@@ -21013,6 +22827,9 @@
       <c r="J605" t="n">
         <v>0</v>
       </c>
+      <c r="K605" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
@@ -21047,6 +22864,9 @@
       <c r="J606" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K606" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -21081,6 +22901,9 @@
       <c r="J607" t="n">
         <v>-0.3181818181818182</v>
       </c>
+      <c r="K607" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
@@ -21115,6 +22938,9 @@
       <c r="J608" t="n">
         <v>0.9333333333333332</v>
       </c>
+      <c r="K608" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
@@ -21149,6 +22975,9 @@
       <c r="J609" t="n">
         <v>-0.3289473684210526</v>
       </c>
+      <c r="K609" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
@@ -21183,6 +23012,9 @@
       <c r="J610" t="n">
         <v>-0.4769230769230769</v>
       </c>
+      <c r="K610" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
@@ -21217,6 +23049,9 @@
       <c r="J611" t="n">
         <v>-0.4772727272727272</v>
       </c>
+      <c r="K611" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
@@ -21251,6 +23086,9 @@
       <c r="J612" t="n">
         <v>-0.426829268292683</v>
       </c>
+      <c r="K612" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
@@ -21285,6 +23123,9 @@
       <c r="J613" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K613" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
@@ -21319,6 +23160,9 @@
       <c r="J614" t="n">
         <v>-1.925925925925926</v>
       </c>
+      <c r="K614" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -21353,6 +23197,9 @@
       <c r="J615" t="n">
         <v>-0.2</v>
       </c>
+      <c r="K615" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
@@ -21387,6 +23234,9 @@
       <c r="J616" t="n">
         <v>-0.2142857142857144</v>
       </c>
+      <c r="K616" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
@@ -21421,6 +23271,9 @@
       <c r="J617" t="n">
         <v>-1.75</v>
       </c>
+      <c r="K617" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
@@ -21455,6 +23308,9 @@
       <c r="J618" t="n">
         <v>-0.4074074074074074</v>
       </c>
+      <c r="K618" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
@@ -21489,6 +23345,9 @@
       <c r="J619" t="n">
         <v>-0.28</v>
       </c>
+      <c r="K619" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
@@ -21523,6 +23382,9 @@
       <c r="J620" t="n">
         <v>-0.1333333333333333</v>
       </c>
+      <c r="K620" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
@@ -21557,6 +23419,9 @@
       <c r="J621" t="n">
         <v>-0.4528301886792453</v>
       </c>
+      <c r="K621" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
@@ -21591,6 +23456,9 @@
       <c r="J622" t="n">
         <v>-0.2432432432432433</v>
       </c>
+      <c r="K622" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
@@ -21625,6 +23493,9 @@
       <c r="J623" t="n">
         <v>0.40625</v>
       </c>
+      <c r="K623" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
@@ -21659,6 +23530,9 @@
       <c r="J624" t="n">
         <v>-0.4042553191489362</v>
       </c>
+      <c r="K624" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -21693,6 +23567,9 @@
       <c r="J625" t="n">
         <v>0.1714285714285714</v>
       </c>
+      <c r="K625" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
@@ -21727,6 +23604,9 @@
       <c r="J626" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K626" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
@@ -21761,6 +23641,9 @@
       <c r="J627" t="n">
         <v>0.8214285714285715</v>
       </c>
+      <c r="K627" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
@@ -21795,6 +23678,9 @@
       <c r="J628" t="n">
         <v>-0.5641025641025641</v>
       </c>
+      <c r="K628" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
@@ -21829,6 +23715,9 @@
       <c r="J629" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K629" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
@@ -21863,6 +23752,9 @@
       <c r="J630" t="n">
         <v>-1.333333333333332</v>
       </c>
+      <c r="K630" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
@@ -21897,6 +23789,9 @@
       <c r="J631" t="n">
         <v>-1.5</v>
       </c>
+      <c r="K631" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
@@ -21931,6 +23826,9 @@
       <c r="J632" t="n">
         <v>-0.4915254237288136</v>
       </c>
+      <c r="K632" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
@@ -21965,6 +23863,9 @@
       <c r="J633" t="n">
         <v>-0.2333333333333334</v>
       </c>
+      <c r="K633" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
@@ -21999,6 +23900,9 @@
       <c r="J634" t="n">
         <v>-0.3289473684210527</v>
       </c>
+      <c r="K634" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
@@ -22033,6 +23937,9 @@
       <c r="J635" t="n">
         <v>-2</v>
       </c>
+      <c r="K635" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
@@ -22067,6 +23974,9 @@
       <c r="J636" t="n">
         <v>-0.4177215189873418</v>
       </c>
+      <c r="K636" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
@@ -22101,6 +24011,9 @@
       <c r="J637" t="n">
         <v>-0.275</v>
       </c>
+      <c r="K637" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
@@ -22135,6 +24048,9 @@
       <c r="J638" t="n">
         <v>-0.2903225806451613</v>
       </c>
+      <c r="K638" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
@@ -22169,6 +24085,9 @@
       <c r="J639" t="n">
         <v>-0.8</v>
       </c>
+      <c r="K639" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
@@ -22203,6 +24122,9 @@
       <c r="J640" t="n">
         <v>-0.8235294117647058</v>
       </c>
+      <c r="K640" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
@@ -22237,6 +24159,9 @@
       <c r="J641" t="n">
         <v>-0.09523809523809534</v>
       </c>
+      <c r="K641" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
@@ -22271,6 +24196,9 @@
       <c r="J642" t="n">
         <v>-1.5</v>
       </c>
+      <c r="K642" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
@@ -22305,6 +24233,9 @@
       <c r="J643" t="n">
         <v>0</v>
       </c>
+      <c r="K643" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
@@ -22339,6 +24270,9 @@
       <c r="J644" t="n">
         <v>0.5238095238095238</v>
       </c>
+      <c r="K644" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
@@ -22373,6 +24307,9 @@
       <c r="J645" t="n">
         <v>-0.2000000000000001</v>
       </c>
+      <c r="K645" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
@@ -22407,6 +24344,9 @@
       <c r="J646" t="n">
         <v>-0.2222222222222223</v>
       </c>
+      <c r="K646" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
@@ -22441,6 +24381,9 @@
       <c r="J647" t="n">
         <v>-0.2432432432432433</v>
       </c>
+      <c r="K647" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
@@ -22475,6 +24418,9 @@
       <c r="J648" t="n">
         <v>-0.5652173913043479</v>
       </c>
+      <c r="K648" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
@@ -22509,6 +24455,9 @@
       <c r="J649" t="n">
         <v>0.84375</v>
       </c>
+      <c r="K649" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
@@ -22543,6 +24492,9 @@
       <c r="J650" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K650" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
@@ -22577,6 +24529,9 @@
       <c r="J651" t="n">
         <v>-0.5625</v>
       </c>
+      <c r="K651" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
@@ -22611,6 +24566,9 @@
       <c r="J652" t="n">
         <v>-1.681818181818182</v>
       </c>
+      <c r="K652" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
@@ -22645,6 +24603,9 @@
       <c r="J653" t="n">
         <v>-0.9333333333333336</v>
       </c>
+      <c r="K653" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
@@ -22679,6 +24640,9 @@
       <c r="J654" t="n">
         <v>-0.4705882352941176</v>
       </c>
+      <c r="K654" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
@@ -22713,6 +24677,9 @@
       <c r="J655" t="n">
         <v>-0.1875</v>
       </c>
+      <c r="K655" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
@@ -22747,6 +24714,9 @@
       <c r="J656" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="K656" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
@@ -22781,6 +24751,9 @@
       <c r="J657" t="n">
         <v>-0.2891566265060241</v>
       </c>
+      <c r="K657" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
@@ -22815,6 +24788,9 @@
       <c r="J658" t="n">
         <v>-0.4</v>
       </c>
+      <c r="K658" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
@@ -22849,6 +24825,9 @@
       <c r="J659" t="n">
         <v>-0.8333333333333335</v>
       </c>
+      <c r="K659" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
@@ -22883,6 +24862,9 @@
       <c r="J660" t="n">
         <v>-0.6486486486486487</v>
       </c>
+      <c r="K660" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
@@ -22917,6 +24899,9 @@
       <c r="J661" t="n">
         <v>-0.263157894736842</v>
       </c>
+      <c r="K661" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
@@ -22951,6 +24936,9 @@
       <c r="J662" t="n">
         <v>0</v>
       </c>
+      <c r="K662" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
@@ -22985,6 +24973,9 @@
       <c r="J663" t="n">
         <v>0.6857142857142857</v>
       </c>
+      <c r="K663" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
@@ -23019,6 +25010,9 @@
       <c r="J664" t="n">
         <v>-0.625</v>
       </c>
+      <c r="K664" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
@@ -23053,6 +25047,9 @@
       <c r="J665" t="n">
         <v>-0.4193548387096774</v>
       </c>
+      <c r="K665" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
@@ -23087,6 +25084,9 @@
       <c r="J666" t="n">
         <v>-0.8461538461538463</v>
       </c>
+      <c r="K666" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
@@ -23121,6 +25121,9 @@
       <c r="J667" t="n">
         <v>-0.2048192771084337</v>
       </c>
+      <c r="K667" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
@@ -23155,6 +25158,9 @@
       <c r="J668" t="n">
         <v>-1.142857142857143</v>
       </c>
+      <c r="K668" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
@@ -23189,6 +25195,9 @@
       <c r="J669" t="n">
         <v>-2</v>
       </c>
+      <c r="K669" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
@@ -23223,6 +25232,9 @@
       <c r="J670" t="n">
         <v>0</v>
       </c>
+      <c r="K670" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
@@ -23257,6 +25269,9 @@
       <c r="J671" t="n">
         <v>-0.8</v>
       </c>
+      <c r="K671" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
@@ -23291,6 +25306,9 @@
       <c r="J672" t="n">
         <v>0</v>
       </c>
+      <c r="K672" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
@@ -23325,6 +25343,9 @@
       <c r="J673" t="n">
         <v>-0.5238095238095237</v>
       </c>
+      <c r="K673" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
@@ -23359,6 +25380,9 @@
       <c r="J674" t="n">
         <v>0.07594936708860756</v>
       </c>
+      <c r="K674" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
@@ -23393,6 +25417,9 @@
       <c r="J675" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K675" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
@@ -23427,6 +25454,9 @@
       <c r="J676" t="n">
         <v>0.1025641025641026</v>
       </c>
+      <c r="K676" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
@@ -23461,6 +25491,9 @@
       <c r="J677" t="n">
         <v>-0.82</v>
       </c>
+      <c r="K677" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
@@ -23495,6 +25528,9 @@
       <c r="J678" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K678" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
@@ -23529,6 +25565,9 @@
       <c r="J679" t="n">
         <v>-0.4285714285714285</v>
       </c>
+      <c r="K679" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
@@ -23563,6 +25602,9 @@
       <c r="J680" t="n">
         <v>-0.2592592592592592</v>
       </c>
+      <c r="K680" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
@@ -23597,6 +25639,9 @@
       <c r="J681" t="n">
         <v>-1.029411764705882</v>
       </c>
+      <c r="K681" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
@@ -23631,6 +25676,9 @@
       <c r="J682" t="n">
         <v>1.351351351351351</v>
       </c>
+      <c r="K682" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
@@ -23665,6 +25713,9 @@
       <c r="J683" t="n">
         <v>-0.5789473684210528</v>
       </c>
+      <c r="K683" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
@@ -23699,6 +25750,9 @@
       <c r="J684" t="n">
         <v>-1.166666666666667</v>
       </c>
+      <c r="K684" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
@@ -23733,6 +25787,9 @@
       <c r="J685" t="n">
         <v>0.5</v>
       </c>
+      <c r="K685" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
@@ -23767,6 +25824,9 @@
       <c r="J686" t="n">
         <v>-0.2352941176470588</v>
       </c>
+      <c r="K686" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
@@ -23801,6 +25861,9 @@
       <c r="J687" t="n">
         <v>-0.2307692307692308</v>
       </c>
+      <c r="K687" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
@@ -23835,6 +25898,9 @@
       <c r="J688" t="n">
         <v>-1.157894736842105</v>
       </c>
+      <c r="K688" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
@@ -23869,6 +25935,9 @@
       <c r="J689" t="n">
         <v>0.3333333333333321</v>
       </c>
+      <c r="K689" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
@@ -23903,6 +25972,9 @@
       <c r="J690" t="n">
         <v>1.294117647058824</v>
       </c>
+      <c r="K690" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
@@ -23937,6 +26009,9 @@
       <c r="J691" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K691" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
@@ -23971,6 +26046,9 @@
       <c r="J692" t="n">
         <v>-1.25</v>
       </c>
+      <c r="K692" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
@@ -24005,6 +26083,9 @@
       <c r="J693" t="n">
         <v>-0.225</v>
       </c>
+      <c r="K693" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
@@ -24039,6 +26120,9 @@
       <c r="J694" t="n">
         <v>-0.3235294117647058</v>
       </c>
+      <c r="K694" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
@@ -24073,6 +26157,9 @@
       <c r="J695" t="n">
         <v>-0.3265306122448979</v>
       </c>
+      <c r="K695" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
@@ -24107,6 +26194,9 @@
       <c r="J696" t="n">
         <v>0</v>
       </c>
+      <c r="K696" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
@@ -24141,6 +26231,9 @@
       <c r="J697" t="n">
         <v>-4.5</v>
       </c>
+      <c r="K697" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
@@ -24175,6 +26268,9 @@
       <c r="J698" t="n">
         <v>-0.4893617021276596</v>
       </c>
+      <c r="K698" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
@@ -24209,6 +26305,9 @@
       <c r="J699" t="n">
         <v>-0.75</v>
       </c>
+      <c r="K699" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
@@ -24243,6 +26342,9 @@
       <c r="J700" t="n">
         <v>-0.5714285714285716</v>
       </c>
+      <c r="K700" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
@@ -24277,6 +26379,9 @@
       <c r="J701" t="n">
         <v>-1.214285714285714</v>
       </c>
+      <c r="K701" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
@@ -24311,6 +26416,9 @@
       <c r="J702" t="n">
         <v>1.2</v>
       </c>
+      <c r="K702" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
@@ -24345,6 +26453,9 @@
       <c r="J703" t="n">
         <v>-1.153846153846154</v>
       </c>
+      <c r="K703" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
@@ -24379,6 +26490,9 @@
       <c r="J704" t="n">
         <v>-1.285714285714286</v>
       </c>
+      <c r="K704" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
@@ -24413,6 +26527,9 @@
       <c r="J705" t="n">
         <v>0.4516129032258064</v>
       </c>
+      <c r="K705" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
@@ -24447,6 +26564,9 @@
       <c r="J706" t="n">
         <v>0.68</v>
       </c>
+      <c r="K706" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
@@ -24481,6 +26601,9 @@
       <c r="J707" t="n">
         <v>0.04255319148936171</v>
       </c>
+      <c r="K707" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
@@ -24515,6 +26638,9 @@
       <c r="J708" t="n">
         <v>-2</v>
       </c>
+      <c r="K708" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
@@ -24549,6 +26675,9 @@
       <c r="J709" t="n">
         <v>-0.1884057971014492</v>
       </c>
+      <c r="K709" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
@@ -24583,6 +26712,9 @@
       <c r="J710" t="n">
         <v>-0.2222222222222223</v>
       </c>
+      <c r="K710" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
@@ -24617,6 +26749,9 @@
       <c r="J711" t="n">
         <v>-0.3409090909090909</v>
       </c>
+      <c r="K711" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
@@ -24651,6 +26786,9 @@
       <c r="J712" t="n">
         <v>-0.2000000000000001</v>
       </c>
+      <c r="K712" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
@@ -24685,6 +26823,9 @@
       <c r="J713" t="n">
         <v>-0.2112676056338028</v>
       </c>
+      <c r="K713" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
@@ -24719,6 +26860,9 @@
       <c r="J714" t="n">
         <v>-0.6666666666666667</v>
       </c>
+      <c r="K714" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
@@ -24752,6 +26896,9 @@
       </c>
       <c r="J715" t="n">
         <v>-0.7500000000000002</v>
+      </c>
+      <c r="K715" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
